--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H2">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N2">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q2">
-        <v>0.001652213859777778</v>
+        <v>0.0002922930833333333</v>
       </c>
       <c r="R2">
-        <v>0.014869924738</v>
+        <v>0.00263063775</v>
       </c>
       <c r="S2">
-        <v>3.490585176451398E-05</v>
+        <v>4.335092640060169E-06</v>
       </c>
       <c r="T2">
-        <v>3.490585176451398E-05</v>
+        <v>4.335092640060168E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H3">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>51.534798</v>
       </c>
       <c r="O3">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P3">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q3">
-        <v>0.2141156335126667</v>
+        <v>0.6917687718200001</v>
       </c>
       <c r="R3">
-        <v>1.927040701614</v>
+        <v>6.22591894638</v>
       </c>
       <c r="S3">
-        <v>0.004523560021983705</v>
+        <v>0.01025984493762514</v>
       </c>
       <c r="T3">
-        <v>0.004523560021983704</v>
+        <v>0.01025984493762514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H4">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N4">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q4">
-        <v>0.0936561738658889</v>
+        <v>0.19726746767</v>
       </c>
       <c r="R4">
-        <v>0.8429055647930001</v>
+        <v>1.77540720903</v>
       </c>
       <c r="S4">
-        <v>0.001978647317626282</v>
+        <v>0.002925737200029049</v>
       </c>
       <c r="T4">
-        <v>0.001978647317626282</v>
+        <v>0.002925737200029049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H5">
         <v>2.983119</v>
       </c>
       <c r="I5">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J5">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N5">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q5">
-        <v>0.1318094444726667</v>
+        <v>0.007217490691666667</v>
       </c>
       <c r="R5">
-        <v>1.186285000254</v>
+        <v>0.06495741622500001</v>
       </c>
       <c r="S5">
-        <v>0.002784700601981793</v>
+        <v>0.0001070449236099963</v>
       </c>
       <c r="T5">
-        <v>0.002784700601981793</v>
+        <v>0.0001070449236099963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H6">
         <v>2.983119</v>
       </c>
       <c r="I6">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J6">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>51.534798</v>
       </c>
       <c r="O6">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P6">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q6">
         <v>17.081603897218</v>
@@ -818,10 +818,10 @@
         <v>153.734435074962</v>
       </c>
       <c r="S6">
-        <v>0.3608781817243871</v>
+        <v>0.2533427561500156</v>
       </c>
       <c r="T6">
-        <v>0.3608781817243871</v>
+        <v>0.2533427561500156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H7">
         <v>2.983119</v>
       </c>
       <c r="I7">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J7">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N7">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q7">
-        <v>7.471652761924334</v>
+        <v>4.871056459632999</v>
       </c>
       <c r="R7">
-        <v>67.244874857319</v>
+        <v>43.839508136697</v>
       </c>
       <c r="S7">
-        <v>0.1578514804244109</v>
+        <v>0.07224420354617547</v>
       </c>
       <c r="T7">
-        <v>0.1578514804244109</v>
+        <v>0.07224420354617546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H8">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N8">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q8">
-        <v>0.1192819934002222</v>
+        <v>0.01465055872222222</v>
       </c>
       <c r="R8">
-        <v>1.073537940602</v>
+        <v>0.1318550285</v>
       </c>
       <c r="S8">
-        <v>0.002520036710237923</v>
+        <v>0.0002172871440034926</v>
       </c>
       <c r="T8">
-        <v>0.002520036710237923</v>
+        <v>0.0002172871440034925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H9">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>51.534798</v>
       </c>
       <c r="O9">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P9">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q9">
-        <v>15.45813178626733</v>
+        <v>34.67341374681333</v>
       </c>
       <c r="R9">
-        <v>139.123186076406</v>
+        <v>312.06072372132</v>
       </c>
       <c r="S9">
-        <v>0.3265795487034243</v>
+        <v>0.5142525407217865</v>
       </c>
       <c r="T9">
-        <v>0.3265795487034243</v>
+        <v>0.5142525407217865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H10">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N10">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q10">
-        <v>6.761530928244111</v>
+        <v>9.88760522871333</v>
       </c>
       <c r="R10">
-        <v>60.853778354197</v>
+        <v>88.98844705841998</v>
       </c>
       <c r="S10">
-        <v>0.1428489386441836</v>
+        <v>0.1466462502841147</v>
       </c>
       <c r="T10">
-        <v>0.1428489386441837</v>
+        <v>0.1466462502841147</v>
       </c>
     </row>
   </sheetData>
